--- a/tables/crosstab/crosstab_gender/crosstab_safety_gender/Gender VS monitoring.xlsx
+++ b/tables/crosstab/crosstab_gender/crosstab_safety_gender/Gender VS monitoring.xlsx
@@ -432,22 +432,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C2">
         <v>143</v>
       </c>
       <c r="D2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E2">
-        <v>31.85</v>
+        <v>31.75</v>
       </c>
       <c r="F2">
-        <v>35.31</v>
+        <v>35.75</v>
       </c>
       <c r="G2">
-        <v>67.16</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -455,22 +455,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E3">
-        <v>12.35</v>
+        <v>12</v>
       </c>
       <c r="F3">
-        <v>20.49</v>
+        <v>20.5</v>
       </c>
       <c r="G3">
-        <v>32.84</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -478,19 +478,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C4">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D4">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E4">
-        <v>44.2</v>
+        <v>43.75</v>
       </c>
       <c r="F4">
-        <v>55.8</v>
+        <v>56.25</v>
       </c>
       <c r="G4">
         <v>100</v>
